--- a/medicine/Psychotrope/Axel_Heiberg/Axel_Heiberg.xlsx
+++ b/medicine/Psychotrope/Axel_Heiberg/Axel_Heiberg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Axel Heiberg (16 mars 1848 – 4 septembre 1932) était un diplomate, financier et entrepreneur norvégien.
 Après des études à l'étranger, Heiberg occupe le poste de consul de Norvège en Chine. Il revient ensuite en Norvège où il finance la création de la brasserie Ringnes en 1876, aux côtés des frères Amund Ringnes (brasseur) et Ellef Ringnes (administrateur et commercial).
